--- a/test-code-generator/Evaluation/Results/execution_analysis_results.xlsx
+++ b/test-code-generator/Evaluation/Results/execution_analysis_results.xlsx
@@ -988,31 +988,31 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>2896.8</v>
+        <v>874.3</v>
       </c>
       <c r="D4" t="n">
-        <v>3201.5</v>
+        <v>866</v>
       </c>
       <c r="E4" t="n">
-        <v>814.4576654982681</v>
+        <v>207.3328242223117</v>
       </c>
       <c r="F4" t="n">
-        <v>843</v>
+        <v>611</v>
       </c>
       <c r="G4" t="n">
-        <v>3538</v>
+        <v>1389</v>
       </c>
       <c r="H4" t="n">
-        <v>2612.75</v>
+        <v>774</v>
       </c>
       <c r="I4" t="n">
-        <v>3373.25</v>
+        <v>901.75</v>
       </c>
       <c r="J4" t="n">
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>28968</v>
+        <v>8743</v>
       </c>
     </row>
     <row r="5">
@@ -1058,31 +1058,31 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>2818.2</v>
+        <v>983</v>
       </c>
       <c r="D6" t="n">
-        <v>3085.5</v>
+        <v>866</v>
       </c>
       <c r="E6" t="n">
-        <v>769.3662326876582</v>
+        <v>405.7322598298866</v>
       </c>
       <c r="F6" t="n">
-        <v>848</v>
+        <v>611</v>
       </c>
       <c r="G6" t="n">
-        <v>3445</v>
+        <v>1979</v>
       </c>
       <c r="H6" t="n">
-        <v>2588.75</v>
+        <v>792.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3234.25</v>
+        <v>901.75</v>
       </c>
       <c r="J6" t="n">
         <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>28182</v>
+        <v>9830</v>
       </c>
     </row>
     <row r="7">
@@ -1163,31 +1163,31 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>3163.21052631579</v>
+        <v>3245.21052631579</v>
       </c>
       <c r="D9" t="n">
-        <v>3104</v>
+        <v>3128</v>
       </c>
       <c r="E9" t="n">
-        <v>521.3443710412287</v>
+        <v>441.634537063719</v>
       </c>
       <c r="F9" t="n">
-        <v>2265</v>
+        <v>2580</v>
       </c>
       <c r="G9" t="n">
-        <v>4042</v>
+        <v>3980</v>
       </c>
       <c r="H9" t="n">
-        <v>2860.5</v>
+        <v>2998.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3526</v>
+        <v>3646.5</v>
       </c>
       <c r="J9" t="n">
         <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>60101</v>
+        <v>61659</v>
       </c>
     </row>
   </sheetData>
@@ -1344,31 +1344,31 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>248.788565564</v>
+        <v>117.4049190889</v>
       </c>
       <c r="D4" t="n">
-        <v>237.6403152915</v>
+        <v>107.1113632535</v>
       </c>
       <c r="E4" t="n">
-        <v>71.43982057051601</v>
+        <v>46.77313482351462</v>
       </c>
       <c r="F4" t="n">
-        <v>158.356709854</v>
+        <v>73.215914181</v>
       </c>
       <c r="G4" t="n">
-        <v>386.697483804</v>
+        <v>229.245458361</v>
       </c>
       <c r="H4" t="n">
-        <v>200.199894267</v>
+        <v>89.0711484885</v>
       </c>
       <c r="I4" t="n">
-        <v>274.3590907305</v>
+        <v>110.9387960065</v>
       </c>
       <c r="J4" t="n">
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>2487.88565564</v>
+        <v>1174.049190889</v>
       </c>
     </row>
     <row r="5">
@@ -1414,31 +1414,31 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>226.5592454426</v>
+        <v>122.5592382633</v>
       </c>
       <c r="D6" t="n">
-        <v>230.6029059475</v>
+        <v>108.034891988</v>
       </c>
       <c r="E6" t="n">
-        <v>60.1019537733503</v>
+        <v>47.79338737685489</v>
       </c>
       <c r="F6" t="n">
-        <v>154.082765952</v>
+        <v>73.255368101</v>
       </c>
       <c r="G6" t="n">
-        <v>316.663542092</v>
+        <v>229.925217957</v>
       </c>
       <c r="H6" t="n">
-        <v>171.08413544475</v>
+        <v>91.81603268375</v>
       </c>
       <c r="I6" t="n">
-        <v>259.607773605</v>
+        <v>143.35819608475</v>
       </c>
       <c r="J6" t="n">
         <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>2265.592454426</v>
+        <v>1225.592382633</v>
       </c>
     </row>
     <row r="7">
@@ -1519,31 +1519,31 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>765.150491534316</v>
+        <v>469.4924685480526</v>
       </c>
       <c r="D9" t="n">
-        <v>763.745219101</v>
+        <v>462.233871756</v>
       </c>
       <c r="E9" t="n">
-        <v>95.08772128621628</v>
+        <v>58.38614679775192</v>
       </c>
       <c r="F9" t="n">
-        <v>617.486868817</v>
+        <v>369.410790214</v>
       </c>
       <c r="G9" t="n">
-        <v>917.307776962</v>
+        <v>587.719382232</v>
       </c>
       <c r="H9" t="n">
-        <v>691.829809935</v>
+        <v>447.113603365</v>
       </c>
       <c r="I9" t="n">
-        <v>834.4814260705</v>
+        <v>520.017560888</v>
       </c>
       <c r="J9" t="n">
         <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>14537.859339152</v>
+        <v>8920.356902412999</v>
       </c>
     </row>
   </sheetData>
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2476</v>
+        <v>2499</v>
       </c>
       <c r="G25" t="n">
-        <v>2476</v>
+        <v>751</v>
       </c>
       <c r="H25" t="n">
-        <v>158.356709854</v>
+        <v>85.269032197</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2560,13 +2560,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2471</v>
+        <v>2494</v>
       </c>
       <c r="G27" t="n">
-        <v>2471</v>
+        <v>877</v>
       </c>
       <c r="H27" t="n">
-        <v>244.272047535</v>
+        <v>100.477497363</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3202</v>
+        <v>3240</v>
       </c>
       <c r="G28" t="n">
-        <v>3202</v>
+        <v>694</v>
       </c>
       <c r="H28" t="n">
-        <v>190.518039569</v>
+        <v>83.184140658</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2634,13 +2634,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3376</v>
+        <v>3414</v>
       </c>
       <c r="G29" t="n">
-        <v>3376</v>
+        <v>901</v>
       </c>
       <c r="H29" t="n">
-        <v>274.527664382</v>
+        <v>110.669556724</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2671,13 +2671,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3023</v>
+        <v>3060</v>
       </c>
       <c r="G30" t="n">
-        <v>3023</v>
+        <v>611</v>
       </c>
       <c r="H30" t="n">
-        <v>168.064589794</v>
+        <v>73.215914181</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2708,13 +2708,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3365</v>
+        <v>3403</v>
       </c>
       <c r="G31" t="n">
-        <v>3365</v>
+        <v>855</v>
       </c>
       <c r="H31" t="n">
-        <v>273.853369776</v>
+        <v>105.278175504</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3538</v>
+        <v>3575</v>
       </c>
       <c r="G32" t="n">
-        <v>3538</v>
+        <v>902</v>
       </c>
       <c r="H32" t="n">
-        <v>331.341709517</v>
+        <v>111.028542434</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3201</v>
+        <v>3238</v>
       </c>
       <c r="G33" t="n">
-        <v>3201</v>
+        <v>920</v>
       </c>
       <c r="H33" t="n">
-        <v>231.008583048</v>
+        <v>108.944551003</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2819,13 +2819,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3473</v>
+        <v>3510</v>
       </c>
       <c r="G34" t="n">
-        <v>3473</v>
+        <v>1389</v>
       </c>
       <c r="H34" t="n">
-        <v>386.697483804</v>
+        <v>166.736322464</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3707,13 +3707,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2475</v>
+        <v>2499</v>
       </c>
       <c r="G58" t="n">
-        <v>2475</v>
+        <v>774</v>
       </c>
       <c r="H58" t="n">
-        <v>158.607325587</v>
+        <v>88.030289811</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3781,13 +3781,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2470</v>
+        <v>2494</v>
       </c>
       <c r="G60" t="n">
-        <v>2470</v>
+        <v>877</v>
       </c>
       <c r="H60" t="n">
-        <v>220.251972881</v>
+        <v>103.173261302</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3063</v>
+        <v>3240</v>
       </c>
       <c r="G61" t="n">
-        <v>3063</v>
+        <v>694</v>
       </c>
       <c r="H61" t="n">
-        <v>167.529910442</v>
+        <v>83.324901231</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3855,13 +3855,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3237</v>
+        <v>3414</v>
       </c>
       <c r="G62" t="n">
-        <v>3237</v>
+        <v>901</v>
       </c>
       <c r="H62" t="n">
-        <v>308.525262277</v>
+        <v>110.510246917</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3892,13 +3892,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2930</v>
+        <v>3060</v>
       </c>
       <c r="G63" t="n">
-        <v>2930</v>
+        <v>611</v>
       </c>
       <c r="H63" t="n">
-        <v>181.746810453</v>
+        <v>73.255368101</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3929,13 +3929,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3226</v>
+        <v>3403</v>
       </c>
       <c r="G64" t="n">
-        <v>3226</v>
+        <v>855</v>
       </c>
       <c r="H64" t="n">
-        <v>260.600034346</v>
+        <v>105.559537059</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3445</v>
+        <v>3575</v>
       </c>
       <c r="G65" t="n">
-        <v>3445</v>
+        <v>902</v>
       </c>
       <c r="H65" t="n">
-        <v>256.630991382</v>
+        <v>111.184486483</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4003,13 +4003,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3108</v>
+        <v>3238</v>
       </c>
       <c r="G66" t="n">
-        <v>3108</v>
+        <v>1979</v>
       </c>
       <c r="H66" t="n">
-        <v>240.953839014</v>
+        <v>229.925217957</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -4040,13 +4040,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3380</v>
+        <v>3510</v>
       </c>
       <c r="G67" t="n">
-        <v>3380</v>
+        <v>1389</v>
       </c>
       <c r="H67" t="n">
-        <v>316.663542092</v>
+        <v>166.54630782</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5551,13 +5551,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3162</v>
+        <v>3202</v>
       </c>
       <c r="G110" t="n">
-        <v>2876</v>
+        <v>3304</v>
       </c>
       <c r="H110" t="n">
-        <v>699.242056442</v>
+        <v>465.005538699</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -5584,13 +5584,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3186</v>
+        <v>3254</v>
       </c>
       <c r="G111" t="n">
-        <v>3729</v>
+        <v>3824</v>
       </c>
       <c r="H111" t="n">
-        <v>867.812599547</v>
+        <v>550.518663999</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3432</v>
+        <v>3483</v>
       </c>
       <c r="G112" t="n">
-        <v>2995</v>
+        <v>3128</v>
       </c>
       <c r="H112" t="n">
-        <v>743.398807176</v>
+        <v>454.693188016</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -5650,13 +5650,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3805</v>
+        <v>3873</v>
       </c>
       <c r="G113" t="n">
-        <v>3831</v>
+        <v>3073</v>
       </c>
       <c r="H113" t="n">
-        <v>917.307776962</v>
+        <v>459.408027875</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -5686,10 +5686,10 @@
         <v>3697</v>
       </c>
       <c r="G114" t="n">
-        <v>3346</v>
+        <v>2977</v>
       </c>
       <c r="H114" t="n">
-        <v>825.843874403</v>
+        <v>406.75001835</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -5716,13 +5716,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3930</v>
+        <v>4007</v>
       </c>
       <c r="G115" t="n">
-        <v>2475</v>
+        <v>2580</v>
       </c>
       <c r="H115" t="n">
-        <v>650.39755715</v>
+        <v>390.636497441</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -5749,13 +5749,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4029</v>
+        <v>2380</v>
       </c>
       <c r="G116" t="n">
-        <v>2265</v>
+        <v>2926</v>
       </c>
       <c r="H116" t="n">
-        <v>617.486868817</v>
+        <v>445.194711279</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -5782,13 +5782,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3824</v>
+        <v>3833</v>
       </c>
       <c r="G117" t="n">
-        <v>3104</v>
+        <v>2598</v>
       </c>
       <c r="H117" t="n">
-        <v>770.386210018</v>
+        <v>387.089492451</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -5815,13 +5815,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3361</v>
+        <v>3438</v>
       </c>
       <c r="G118" t="n">
-        <v>2523</v>
+        <v>3020</v>
       </c>
       <c r="H118" t="n">
-        <v>645.346967057</v>
+        <v>462.233871756</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -5848,13 +5848,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2503</v>
+        <v>2580</v>
       </c>
       <c r="G119" t="n">
-        <v>3517</v>
+        <v>3763</v>
       </c>
       <c r="H119" t="n">
-        <v>795.730948462</v>
+        <v>587.719382232</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -5881,13 +5881,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2631</v>
+        <v>2640</v>
       </c>
       <c r="G120" t="n">
-        <v>4042</v>
+        <v>3972</v>
       </c>
       <c r="H120" t="n">
-        <v>902.586510639</v>
+        <v>522.293294571</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3416</v>
+        <v>3456</v>
       </c>
       <c r="G121" t="n">
-        <v>3535</v>
+        <v>3758</v>
       </c>
       <c r="H121" t="n">
-        <v>843.118977738</v>
+        <v>529.964491217</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -5947,13 +5947,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3349</v>
+        <v>3389</v>
       </c>
       <c r="G122" t="n">
-        <v>3472</v>
+        <v>3535</v>
       </c>
       <c r="H122" t="n">
-        <v>825.527642745</v>
+        <v>517.741827205</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -5980,13 +5980,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3059</v>
+        <v>3099</v>
       </c>
       <c r="G123" t="n">
-        <v>2845</v>
+        <v>3088</v>
       </c>
       <c r="H123" t="n">
-        <v>686.844603387</v>
+        <v>449.149723489</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -6013,13 +6013,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3167</v>
+        <v>3235</v>
       </c>
       <c r="G124" t="n">
-        <v>3214</v>
+        <v>3131</v>
       </c>
       <c r="H124" t="n">
-        <v>763.745219101</v>
+        <v>476.28905885</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -6046,13 +6046,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3917</v>
+        <v>3926</v>
       </c>
       <c r="G125" t="n">
-        <v>2584</v>
+        <v>2698</v>
       </c>
       <c r="H125" t="n">
-        <v>671.8563295180001</v>
+        <v>369.410790214</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -6079,13 +6079,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3201</v>
+        <v>3241</v>
       </c>
       <c r="G126" t="n">
-        <v>2929</v>
+        <v>3203</v>
       </c>
       <c r="H126" t="n">
-        <v>710.737915247</v>
+        <v>470.99681426</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -6112,13 +6112,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3087</v>
+        <v>3155</v>
       </c>
       <c r="G127" t="n">
-        <v>2889</v>
+        <v>3101</v>
       </c>
       <c r="H127" t="n">
-        <v>696.815016483</v>
+        <v>449.032495451</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -6145,13 +6145,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>3138</v>
+        <v>3147</v>
       </c>
       <c r="G128" t="n">
-        <v>3930</v>
+        <v>3980</v>
       </c>
       <c r="H128" t="n">
-        <v>903.67345826</v>
+        <v>526.229015058</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -7243,13 +7243,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476</v>
+        <v>2499</v>
       </c>
       <c r="C2" t="n">
-        <v>2476</v>
+        <v>751</v>
       </c>
       <c r="D2" t="n">
-        <v>158.356709854</v>
+        <v>85.269032197</v>
       </c>
     </row>
     <row r="3">
@@ -7275,13 +7275,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2471</v>
+        <v>2494</v>
       </c>
       <c r="C4" t="n">
-        <v>2471</v>
+        <v>877</v>
       </c>
       <c r="D4" t="n">
-        <v>244.272047535</v>
+        <v>100.477497363</v>
       </c>
     </row>
     <row r="5">
@@ -7291,13 +7291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3202</v>
+        <v>3240</v>
       </c>
       <c r="C5" t="n">
-        <v>3202</v>
+        <v>694</v>
       </c>
       <c r="D5" t="n">
-        <v>190.518039569</v>
+        <v>83.184140658</v>
       </c>
     </row>
     <row r="6">
@@ -7307,13 +7307,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3376</v>
+        <v>3414</v>
       </c>
       <c r="C6" t="n">
-        <v>3376</v>
+        <v>901</v>
       </c>
       <c r="D6" t="n">
-        <v>274.527664382</v>
+        <v>110.669556724</v>
       </c>
     </row>
     <row r="7">
@@ -7323,13 +7323,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3023</v>
+        <v>3060</v>
       </c>
       <c r="C7" t="n">
-        <v>3023</v>
+        <v>611</v>
       </c>
       <c r="D7" t="n">
-        <v>168.064589794</v>
+        <v>73.215914181</v>
       </c>
     </row>
     <row r="8">
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3365</v>
+        <v>3403</v>
       </c>
       <c r="C8" t="n">
-        <v>3365</v>
+        <v>855</v>
       </c>
       <c r="D8" t="n">
-        <v>273.853369776</v>
+        <v>105.278175504</v>
       </c>
     </row>
     <row r="9">
@@ -7355,13 +7355,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3538</v>
+        <v>3575</v>
       </c>
       <c r="C9" t="n">
-        <v>3538</v>
+        <v>902</v>
       </c>
       <c r="D9" t="n">
-        <v>331.341709517</v>
+        <v>111.028542434</v>
       </c>
     </row>
     <row r="10">
@@ -7371,13 +7371,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3201</v>
+        <v>3238</v>
       </c>
       <c r="C10" t="n">
-        <v>3201</v>
+        <v>920</v>
       </c>
       <c r="D10" t="n">
-        <v>231.008583048</v>
+        <v>108.944551003</v>
       </c>
     </row>
     <row r="11">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3473</v>
+        <v>3510</v>
       </c>
       <c r="C11" t="n">
-        <v>3473</v>
+        <v>1389</v>
       </c>
       <c r="D11" t="n">
-        <v>386.697483804</v>
+        <v>166.736322464</v>
       </c>
     </row>
   </sheetData>
@@ -7853,13 +7853,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2475</v>
+        <v>2499</v>
       </c>
       <c r="C2" t="n">
-        <v>2475</v>
+        <v>774</v>
       </c>
       <c r="D2" t="n">
-        <v>158.607325587</v>
+        <v>88.030289811</v>
       </c>
     </row>
     <row r="3">
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2470</v>
+        <v>2494</v>
       </c>
       <c r="C4" t="n">
-        <v>2470</v>
+        <v>877</v>
       </c>
       <c r="D4" t="n">
-        <v>220.251972881</v>
+        <v>103.173261302</v>
       </c>
     </row>
     <row r="5">
@@ -7901,13 +7901,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3063</v>
+        <v>3240</v>
       </c>
       <c r="C5" t="n">
-        <v>3063</v>
+        <v>694</v>
       </c>
       <c r="D5" t="n">
-        <v>167.529910442</v>
+        <v>83.324901231</v>
       </c>
     </row>
     <row r="6">
@@ -7917,13 +7917,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3237</v>
+        <v>3414</v>
       </c>
       <c r="C6" t="n">
-        <v>3237</v>
+        <v>901</v>
       </c>
       <c r="D6" t="n">
-        <v>308.525262277</v>
+        <v>110.510246917</v>
       </c>
     </row>
     <row r="7">
@@ -7933,13 +7933,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2930</v>
+        <v>3060</v>
       </c>
       <c r="C7" t="n">
-        <v>2930</v>
+        <v>611</v>
       </c>
       <c r="D7" t="n">
-        <v>181.746810453</v>
+        <v>73.255368101</v>
       </c>
     </row>
     <row r="8">
@@ -7949,13 +7949,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3226</v>
+        <v>3403</v>
       </c>
       <c r="C8" t="n">
-        <v>3226</v>
+        <v>855</v>
       </c>
       <c r="D8" t="n">
-        <v>260.600034346</v>
+        <v>105.559537059</v>
       </c>
     </row>
     <row r="9">
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3445</v>
+        <v>3575</v>
       </c>
       <c r="C9" t="n">
-        <v>3445</v>
+        <v>902</v>
       </c>
       <c r="D9" t="n">
-        <v>256.630991382</v>
+        <v>111.184486483</v>
       </c>
     </row>
     <row r="10">
@@ -7981,13 +7981,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3108</v>
+        <v>3238</v>
       </c>
       <c r="C10" t="n">
-        <v>3108</v>
+        <v>1979</v>
       </c>
       <c r="D10" t="n">
-        <v>240.953839014</v>
+        <v>229.925217957</v>
       </c>
     </row>
     <row r="11">
@@ -7997,13 +7997,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3380</v>
+        <v>3510</v>
       </c>
       <c r="C11" t="n">
-        <v>3380</v>
+        <v>1389</v>
       </c>
       <c r="D11" t="n">
-        <v>316.663542092</v>
+        <v>166.54630782</v>
       </c>
     </row>
   </sheetData>
@@ -8744,13 +8744,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3162</v>
+        <v>3202</v>
       </c>
       <c r="C2" t="n">
-        <v>2876</v>
+        <v>3304</v>
       </c>
       <c r="D2" t="n">
-        <v>699.242056442</v>
+        <v>465.005538699</v>
       </c>
     </row>
     <row r="3">
@@ -8760,13 +8760,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3186</v>
+        <v>3254</v>
       </c>
       <c r="C3" t="n">
-        <v>3729</v>
+        <v>3824</v>
       </c>
       <c r="D3" t="n">
-        <v>867.812599547</v>
+        <v>550.518663999</v>
       </c>
     </row>
     <row r="4">
@@ -8776,13 +8776,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3432</v>
+        <v>3483</v>
       </c>
       <c r="C4" t="n">
-        <v>2995</v>
+        <v>3128</v>
       </c>
       <c r="D4" t="n">
-        <v>743.398807176</v>
+        <v>454.693188016</v>
       </c>
     </row>
     <row r="5">
@@ -8792,13 +8792,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3805</v>
+        <v>3873</v>
       </c>
       <c r="C5" t="n">
-        <v>3831</v>
+        <v>3073</v>
       </c>
       <c r="D5" t="n">
-        <v>917.307776962</v>
+        <v>459.408027875</v>
       </c>
     </row>
     <row r="6">
@@ -8811,10 +8811,10 @@
         <v>3697</v>
       </c>
       <c r="C6" t="n">
-        <v>3346</v>
+        <v>2977</v>
       </c>
       <c r="D6" t="n">
-        <v>825.843874403</v>
+        <v>406.75001835</v>
       </c>
     </row>
     <row r="7">
@@ -8824,13 +8824,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3930</v>
+        <v>4007</v>
       </c>
       <c r="C7" t="n">
-        <v>2475</v>
+        <v>2580</v>
       </c>
       <c r="D7" t="n">
-        <v>650.39755715</v>
+        <v>390.636497441</v>
       </c>
     </row>
     <row r="8">
@@ -8840,13 +8840,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4029</v>
+        <v>2380</v>
       </c>
       <c r="C8" t="n">
-        <v>2265</v>
+        <v>2926</v>
       </c>
       <c r="D8" t="n">
-        <v>617.486868817</v>
+        <v>445.194711279</v>
       </c>
     </row>
     <row r="9">
@@ -8856,13 +8856,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3824</v>
+        <v>3833</v>
       </c>
       <c r="C9" t="n">
-        <v>3104</v>
+        <v>2598</v>
       </c>
       <c r="D9" t="n">
-        <v>770.386210018</v>
+        <v>387.089492451</v>
       </c>
     </row>
     <row r="10">
@@ -8872,13 +8872,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3361</v>
+        <v>3438</v>
       </c>
       <c r="C10" t="n">
-        <v>2523</v>
+        <v>3020</v>
       </c>
       <c r="D10" t="n">
-        <v>645.346967057</v>
+        <v>462.233871756</v>
       </c>
     </row>
     <row r="11">
@@ -8888,13 +8888,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2503</v>
+        <v>2580</v>
       </c>
       <c r="C11" t="n">
-        <v>3517</v>
+        <v>3763</v>
       </c>
       <c r="D11" t="n">
-        <v>795.730948462</v>
+        <v>587.719382232</v>
       </c>
     </row>
     <row r="12">
@@ -8904,13 +8904,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2631</v>
+        <v>2640</v>
       </c>
       <c r="C12" t="n">
-        <v>4042</v>
+        <v>3972</v>
       </c>
       <c r="D12" t="n">
-        <v>902.586510639</v>
+        <v>522.293294571</v>
       </c>
     </row>
     <row r="13">
@@ -8920,13 +8920,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3416</v>
+        <v>3456</v>
       </c>
       <c r="C13" t="n">
-        <v>3535</v>
+        <v>3758</v>
       </c>
       <c r="D13" t="n">
-        <v>843.118977738</v>
+        <v>529.964491217</v>
       </c>
     </row>
     <row r="14">
@@ -8936,13 +8936,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3349</v>
+        <v>3389</v>
       </c>
       <c r="C14" t="n">
-        <v>3472</v>
+        <v>3535</v>
       </c>
       <c r="D14" t="n">
-        <v>825.527642745</v>
+        <v>517.741827205</v>
       </c>
     </row>
     <row r="15">
@@ -8952,13 +8952,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3059</v>
+        <v>3099</v>
       </c>
       <c r="C15" t="n">
-        <v>2845</v>
+        <v>3088</v>
       </c>
       <c r="D15" t="n">
-        <v>686.844603387</v>
+        <v>449.149723489</v>
       </c>
     </row>
     <row r="16">
@@ -8968,13 +8968,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3167</v>
+        <v>3235</v>
       </c>
       <c r="C16" t="n">
-        <v>3214</v>
+        <v>3131</v>
       </c>
       <c r="D16" t="n">
-        <v>763.745219101</v>
+        <v>476.28905885</v>
       </c>
     </row>
     <row r="17">
@@ -8984,13 +8984,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3917</v>
+        <v>3926</v>
       </c>
       <c r="C17" t="n">
-        <v>2584</v>
+        <v>2698</v>
       </c>
       <c r="D17" t="n">
-        <v>671.8563295180001</v>
+        <v>369.410790214</v>
       </c>
     </row>
     <row r="18">
@@ -9000,13 +9000,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3201</v>
+        <v>3241</v>
       </c>
       <c r="C18" t="n">
-        <v>2929</v>
+        <v>3203</v>
       </c>
       <c r="D18" t="n">
-        <v>710.737915247</v>
+        <v>470.99681426</v>
       </c>
     </row>
     <row r="19">
@@ -9016,13 +9016,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3087</v>
+        <v>3155</v>
       </c>
       <c r="C19" t="n">
-        <v>2889</v>
+        <v>3101</v>
       </c>
       <c r="D19" t="n">
-        <v>696.815016483</v>
+        <v>449.032495451</v>
       </c>
     </row>
     <row r="20">
@@ -9032,13 +9032,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3138</v>
+        <v>3147</v>
       </c>
       <c r="C20" t="n">
-        <v>3930</v>
+        <v>3980</v>
       </c>
       <c r="D20" t="n">
-        <v>903.67345826</v>
+        <v>526.229015058</v>
       </c>
     </row>
   </sheetData>
@@ -9195,31 +9195,31 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>3059.1</v>
+        <v>3089.9</v>
       </c>
       <c r="D4" t="n">
-        <v>3201.5</v>
+        <v>3239</v>
       </c>
       <c r="E4" t="n">
-        <v>431.2968686286616</v>
+        <v>441.4303644592958</v>
       </c>
       <c r="F4" t="n">
         <v>2466</v>
       </c>
       <c r="G4" t="n">
-        <v>3538</v>
+        <v>3575</v>
       </c>
       <c r="H4" t="n">
-        <v>2612.75</v>
+        <v>2639.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3373.25</v>
+        <v>3411.25</v>
       </c>
       <c r="J4" t="n">
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>30591</v>
+        <v>30899</v>
       </c>
     </row>
     <row r="5">
@@ -9265,31 +9265,31 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>2980</v>
+        <v>3089.9</v>
       </c>
       <c r="D6" t="n">
-        <v>3085.5</v>
+        <v>3239</v>
       </c>
       <c r="E6" t="n">
-        <v>381.2091872508379</v>
+        <v>441.4303644592958</v>
       </c>
       <c r="F6" t="n">
         <v>2466</v>
       </c>
       <c r="G6" t="n">
-        <v>3445</v>
+        <v>3575</v>
       </c>
       <c r="H6" t="n">
-        <v>2588.75</v>
+        <v>2639.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3234.25</v>
+        <v>3411.25</v>
       </c>
       <c r="J6" t="n">
         <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>29800</v>
+        <v>30899</v>
       </c>
     </row>
     <row r="7">
@@ -9370,31 +9370,31 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>3362.842105263158</v>
+        <v>3317.631578947368</v>
       </c>
       <c r="D9" t="n">
-        <v>3349</v>
+        <v>3254</v>
       </c>
       <c r="E9" t="n">
-        <v>423.6221145153222</v>
+        <v>450.0182972238543</v>
       </c>
       <c r="F9" t="n">
-        <v>2503</v>
+        <v>2380</v>
       </c>
       <c r="G9" t="n">
-        <v>4029</v>
+        <v>4007</v>
       </c>
       <c r="H9" t="n">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="I9" t="n">
-        <v>3751</v>
+        <v>3590</v>
       </c>
       <c r="J9" t="n">
         <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>63894</v>
+        <v>63035</v>
       </c>
     </row>
   </sheetData>
